--- a/GitHub Commands.xlsx
+++ b/GitHub Commands.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7800"/>
   </bookViews>
   <sheets>
     <sheet name="Commands" sheetId="1" r:id="rId1"/>
     <sheet name="Problems - Solutions" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Terminology" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="71">
   <si>
     <t>Task</t>
   </si>
@@ -202,12 +202,174 @@
     <t>$ git stash --all
 $ git stash -a (Shorthand for above command)</t>
   </si>
+  <si>
+    <t>View the list of files that are committed but not pushed -- i.e. the files which I am about to push</t>
+  </si>
+  <si>
+    <t>$ git diff --stat --cached origin/master OR
+$ git diff --name-only</t>
+  </si>
+  <si>
+    <t>Push dry run. This will do everything except for actually sending the data</t>
+  </si>
+  <si>
+    <t>$ git push --dry-run</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Commit the local changes </t>
+  </si>
+  <si>
+    <t>$ git commit -m "&lt;message&gt;"</t>
+  </si>
+  <si>
+    <t>Push the committed changes</t>
+  </si>
+  <si>
+    <t>$ git push OR
+$ git push master origin</t>
+  </si>
+  <si>
+    <t>Add the files so that the files can be tracked</t>
+  </si>
+  <si>
+    <t>$ git add -A OR $ git add --all
+$ git add .
+$ git add -u OR $ git add --udpate</t>
+  </si>
+  <si>
+    <t>Normal Git Checkin Process</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>New Files</t>
+  </si>
+  <si>
+    <t>Modified Files</t>
+  </si>
+  <si>
+    <t>Deleted Files</t>
+  </si>
+  <si>
+    <t>$ git add -A</t>
+  </si>
+  <si>
+    <t>$ git add -u</t>
+  </si>
+  <si>
+    <t>$ git add --ignore-removal</t>
+  </si>
+  <si>
+    <r>
+      <t>$ git add</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1" tint="0.14999847407452621"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> .</t>
+    </r>
+  </si>
+  <si>
+    <t>ü</t>
+  </si>
+  <si>
+    <t>û</t>
+  </si>
+  <si>
+    <t>Commants</t>
+  </si>
+  <si>
+    <t>Adds file only in current directory</t>
+  </si>
+  <si>
+    <t>$ git add</t>
+  </si>
+  <si>
+    <t>Adds all the files regardless of directory</t>
+  </si>
+  <si>
+    <t>Pull the latest code from repository</t>
+  </si>
+  <si>
+    <t>Problem</t>
+  </si>
+  <si>
+    <t>Solution</t>
+  </si>
+  <si>
+    <t>$ git log</t>
+  </si>
+  <si>
+    <t>Show detailed logs</t>
+  </si>
+  <si>
+    <t>Show all the commits</t>
+  </si>
+  <si>
+    <t>$ git reflog</t>
+  </si>
+  <si>
+    <t>$ git diff  OR
+$ git diff origin/master</t>
+  </si>
+  <si>
+    <t>View difference between all files in local repository and origin</t>
+  </si>
+  <si>
+    <t>$ git diff  remotename/branchname:remote/path/file local/path/file1.txt</t>
+  </si>
+  <si>
+    <t>View difference between a file in local repository and origin</t>
+  </si>
+  <si>
+    <t>Remove untracked files from local</t>
+  </si>
+  <si>
+    <t>Remove untracked files and directories from local</t>
+  </si>
+  <si>
+    <t>$ git clean -f -d</t>
+  </si>
+  <si>
+    <t>Remove untracked and ignored files from local</t>
+  </si>
+  <si>
+    <t>$ git clean -f -x</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">$ git clean -f. Better to use --dry-run before </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1" tint="0.14999847407452621"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>clean</t>
+    </r>
+  </si>
+  <si>
+    <t>All changed files between 2 commits</t>
+  </si>
+  <si>
+    <t>git diff --name-only SHA1 SHA2 OR
+git diff --name-only HEAD@{10} HEAD@{5{}</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -223,6 +385,13 @@
       <family val="2"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1" tint="0.14999847407452621"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color theme="1" tint="0.14999847407452621"/>
       <name val="Arial"/>
@@ -234,6 +403,19 @@
       <color theme="1" tint="0.14999847407452621"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1" tint="0.14999847407452621"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1" tint="0.14999847407452621"/>
+      <name val="Wingdings"/>
+      <charset val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -283,7 +465,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -294,24 +476,36 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -615,10 +809,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C35" sqref="C34:C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -626,10 +820,16 @@
     <col min="1" max="1" width="9.140625" style="11"/>
     <col min="2" max="2" width="63.7109375" style="4" customWidth="1"/>
     <col min="3" max="3" width="54.7109375" style="4" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="4"/>
+    <col min="4" max="4" width="9.140625" style="4"/>
+    <col min="5" max="5" width="27.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24.28515625" style="4" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>11</v>
       </c>
@@ -640,8 +840,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="15" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -649,7 +849,7 @@
       </c>
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="1:3" ht="60" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" ht="60" x14ac:dyDescent="0.2">
       <c r="A3" s="5">
         <v>1</v>
       </c>
@@ -660,7 +860,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" ht="30" x14ac:dyDescent="0.2">
       <c r="A4" s="5">
         <v>2</v>
       </c>
@@ -671,7 +871,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" ht="30" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
         <v>3</v>
       </c>
@@ -682,7 +882,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
         <v>4</v>
       </c>
@@ -693,7 +893,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" ht="30" x14ac:dyDescent="0.2">
       <c r="A7" s="5">
         <v>5</v>
       </c>
@@ -704,7 +904,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" ht="30" x14ac:dyDescent="0.2">
       <c r="A8" s="5">
         <v>6</v>
       </c>
@@ -715,7 +915,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="5">
         <v>7</v>
       </c>
@@ -726,7 +926,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" ht="30" x14ac:dyDescent="0.2">
       <c r="A10" s="5">
         <v>8</v>
       </c>
@@ -737,7 +937,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="45" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" ht="45" x14ac:dyDescent="0.2">
       <c r="A11" s="5">
         <v>9</v>
       </c>
@@ -748,7 +948,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="45" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" ht="45" x14ac:dyDescent="0.2">
       <c r="A12" s="5">
         <v>10</v>
       </c>
@@ -759,7 +959,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" ht="30" x14ac:dyDescent="0.2">
       <c r="A13" s="5">
         <v>11</v>
       </c>
@@ -770,9 +970,263 @@
         <v>26</v>
       </c>
     </row>
+    <row r="14" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="E14" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="F14" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="G14" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="H14" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="I14" s="14" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="45" x14ac:dyDescent="0.2">
+      <c r="A15" s="5">
+        <v>1</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="F15" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="G15" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="I15" s="7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="30" x14ac:dyDescent="0.2">
+      <c r="A16" s="5">
+        <v>2</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="F16" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="G16" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="I16" s="7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="30" x14ac:dyDescent="0.2">
+      <c r="A17" s="5">
+        <v>3</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="G17" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="I17" s="7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="30" x14ac:dyDescent="0.2">
+      <c r="A18" s="5">
+        <v>4</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="G18" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" s="7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="30" x14ac:dyDescent="0.2">
+      <c r="A19" s="5">
+        <v>5</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="F19" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="G19" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="I19" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" s="5">
+        <v>6</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" s="5">
+        <v>7</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" s="5">
+        <v>8</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="30" x14ac:dyDescent="0.2">
+      <c r="A23" s="5">
+        <v>9</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="30" x14ac:dyDescent="0.2">
+      <c r="A24" s="5">
+        <v>10</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25" s="5">
+        <v>11</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26" s="5">
+        <v>12</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27" s="5">
+        <v>13</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="30" x14ac:dyDescent="0.2">
+      <c r="A29" s="11">
+        <v>1</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>70</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B14:C14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -781,14 +1235,30 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="72.85546875" customWidth="1"/>
+    <col min="3" max="3" width="54.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -797,7 +1267,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>

--- a/GitHub Commands.xlsx
+++ b/GitHub Commands.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="73">
   <si>
     <t>Task</t>
   </si>
@@ -361,8 +361,17 @@
     <t>All changed files between 2 commits</t>
   </si>
   <si>
-    <t>git diff --name-only SHA1 SHA2 OR
-git diff --name-only HEAD@{10} HEAD@{5{}</t>
+    <t>$ git diff --name-only SHA1 SHA2 OR
+$ git diff --name-only HEAD@{10} HEAD@{5}</t>
+  </si>
+  <si>
+    <t>$ git remote set-url &lt;new-url&gt;
+The same command can also be used to switch from SSH to HTTPS URL and vice versa.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Point to new remote repository URL after repository ownership transfer
+Transferring ownership of repository is done via web UI. When a repository is transferred, all links to the previous location are automatically redirected to the new location.
+In addition to redirecting web traffic, all git clone, git fetch, or git push operations targeting the previous location will continue to function as if made on the new location. However, this can be somewhat confusing, so it is strongly recommend to update any existing local clones to point to the new repository URL. </t>
   </si>
 </sst>
 </file>
@@ -465,11 +474,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -507,6 +513,15 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -809,418 +824,426 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I29"/>
+  <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C35" sqref="C34:C35"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="11"/>
-    <col min="2" max="2" width="63.7109375" style="4" customWidth="1"/>
-    <col min="3" max="3" width="54.7109375" style="4" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="4"/>
-    <col min="5" max="5" width="27.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="24.28515625" style="4" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="4"/>
+    <col min="1" max="1" width="9.140625" style="10"/>
+    <col min="2" max="2" width="63.7109375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="54.7109375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="3"/>
+    <col min="5" max="5" width="27.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24.28515625" style="3" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="1"/>
+      <c r="C2" s="15"/>
     </row>
     <row r="3" spans="1:9" ht="60" x14ac:dyDescent="0.2">
-      <c r="A3" s="5">
+      <c r="A3" s="4">
         <v>1</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="6" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="30" x14ac:dyDescent="0.2">
-      <c r="A4" s="5">
+      <c r="A4" s="4">
         <v>2</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="7" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="30" x14ac:dyDescent="0.2">
-      <c r="A5" s="5">
+      <c r="A5" s="4">
         <v>3</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="6" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="5">
+      <c r="A6" s="4">
         <v>4</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="7" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="30" x14ac:dyDescent="0.2">
-      <c r="A7" s="5">
+      <c r="A7" s="4">
         <v>5</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="5" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="30" x14ac:dyDescent="0.2">
-      <c r="A8" s="5">
+      <c r="A8" s="4">
         <v>6</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="5" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="5">
+      <c r="A9" s="4">
         <v>7</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="8" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="30" x14ac:dyDescent="0.2">
-      <c r="A10" s="5">
+      <c r="A10" s="4">
         <v>8</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="5" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="45" x14ac:dyDescent="0.2">
-      <c r="A11" s="5">
+      <c r="A11" s="4">
         <v>9</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="5" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="45" x14ac:dyDescent="0.2">
-      <c r="A12" s="5">
+      <c r="A12" s="4">
         <v>10</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="5" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="30" x14ac:dyDescent="0.2">
-      <c r="A13" s="5">
+      <c r="A13" s="4">
         <v>11</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="5" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="15" t="s">
+      <c r="A14" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="1"/>
-      <c r="E14" s="14" t="s">
+      <c r="C14" s="15"/>
+      <c r="E14" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="F14" s="14" t="s">
+      <c r="F14" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="G14" s="14" t="s">
+      <c r="G14" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="H14" s="14" t="s">
+      <c r="H14" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="I14" s="14" t="s">
+      <c r="I14" s="13" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="45" x14ac:dyDescent="0.2">
-      <c r="A15" s="5">
+      <c r="A15" s="4">
         <v>1</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="E15" s="8" t="s">
+      <c r="E15" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="F15" s="13" t="s">
+      <c r="F15" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="G15" s="13" t="s">
+      <c r="G15" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="H15" s="13" t="s">
+      <c r="H15" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="I15" s="7" t="s">
+      <c r="I15" s="6" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="30" x14ac:dyDescent="0.2">
-      <c r="A16" s="5">
+      <c r="A16" s="4">
         <v>2</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="C16" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="E16" s="8" t="s">
+      <c r="E16" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="F16" s="13" t="s">
+      <c r="F16" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="G16" s="13" t="s">
+      <c r="G16" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="H16" s="13" t="s">
+      <c r="H16" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="I16" s="7" t="s">
+      <c r="I16" s="6" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="30" x14ac:dyDescent="0.2">
-      <c r="A17" s="5">
+      <c r="A17" s="4">
         <v>3</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="E17" s="8" t="s">
+      <c r="E17" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="F17" s="13" t="s">
+      <c r="F17" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="G17" s="13" t="s">
+      <c r="G17" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="H17" s="13" t="s">
+      <c r="H17" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="I17" s="7" t="s">
+      <c r="I17" s="6" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="30" x14ac:dyDescent="0.2">
-      <c r="A18" s="5">
+      <c r="A18" s="4">
         <v>4</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="C18" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="E18" s="8" t="s">
+      <c r="E18" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="F18" s="13" t="s">
+      <c r="F18" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="G18" s="13" t="s">
+      <c r="G18" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="H18" s="13" t="s">
+      <c r="H18" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="I18" s="7" t="s">
+      <c r="I18" s="6" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="30" x14ac:dyDescent="0.2">
-      <c r="A19" s="5">
+      <c r="A19" s="4">
         <v>5</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E19" s="9" t="s">
+      <c r="E19" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="F19" s="13" t="s">
+      <c r="F19" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="G19" s="13" t="s">
+      <c r="G19" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="H19" s="13" t="s">
+      <c r="H19" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="I19" s="7" t="s">
+      <c r="I19" s="6" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" s="5">
+      <c r="A20" s="4">
         <v>6</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="B20" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="C20" s="9" t="s">
+      <c r="C20" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21" s="5">
+      <c r="A21" s="4">
         <v>7</v>
       </c>
-      <c r="B21" s="9" t="s">
+      <c r="B21" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="C21" s="9" t="s">
+      <c r="C21" s="8" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A22" s="5">
+      <c r="A22" s="4">
         <v>8</v>
       </c>
-      <c r="B22" s="9" t="s">
+      <c r="B22" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="C22" s="9" t="s">
+      <c r="C22" s="8" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="30" x14ac:dyDescent="0.2">
-      <c r="A23" s="5">
+      <c r="A23" s="4">
         <v>9</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="C23" s="6" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="30" x14ac:dyDescent="0.2">
-      <c r="A24" s="5">
+      <c r="A24" s="4">
         <v>10</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="B24" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="C24" s="5" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A25" s="5">
+      <c r="A25" s="4">
         <v>11</v>
       </c>
-      <c r="B25" s="9" t="s">
+      <c r="B25" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="C25" s="9" t="s">
+      <c r="C25" s="8" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A26" s="5">
+      <c r="A26" s="4">
         <v>12</v>
       </c>
-      <c r="B26" s="9" t="s">
+      <c r="B26" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="C26" s="9" t="s">
+      <c r="C26" s="8" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A27" s="5">
+      <c r="A27" s="4">
         <v>13</v>
       </c>
-      <c r="B27" s="9" t="s">
+      <c r="B27" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="C27" s="9" t="s">
+      <c r="C27" s="8" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="30" x14ac:dyDescent="0.2">
-      <c r="A29" s="11">
+      <c r="A29" s="10">
         <v>1</v>
       </c>
-      <c r="B29" s="4" t="s">
+      <c r="B29" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="C29" s="12" t="s">
+      <c r="C29" s="11" t="s">
         <v>70</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="195" x14ac:dyDescent="0.2">
+      <c r="B31" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="C31" s="17" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>
